--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3AB47F-3556-4415-BE76-07AC98AB55C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9C72B-C97A-44DD-8CAA-8C3EF2143BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2004,9 @@
       <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2034,7 +2036,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9C72B-C97A-44DD-8CAA-8C3EF2143BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FC050-B9EF-4D96-95C3-832FFAFA12A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2008,9 @@
         <v>2</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>48</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
@@ -2036,7 +2038,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FC050-B9EF-4D96-95C3-832FFAFA12A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E919CC-96B3-4BE2-8F7C-EA17EFCF6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +569,11 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,9 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1987,7 +1989,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2011,7 +2013,9 @@
       <c r="H6" s="8">
         <v>48</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>16</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2038,7 +2042,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E919CC-96B3-4BE2-8F7C-EA17EFCF6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385CDAF-BA41-4377-A2C3-E1409EC2980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +569,11 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -591,11 +591,11 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
@@ -906,7 +906,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>52</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1182,7 +1184,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1756,7 +1758,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1957,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1966,7 +1968,9 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7"/>
@@ -1989,7 +1993,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2018,11 +2022,19 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="7"/>
+      <c r="N6" s="8">
+        <v>6</v>
+      </c>
+      <c r="O6" s="8">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7">
+        <v>6</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -2042,7 +2054,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385CDAF-BA41-4377-A2C3-E1409EC2980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345487A9-162C-45C8-B954-7EC0351D41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2035,9 @@
       <c r="P6" s="7">
         <v>6</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7">
+        <v>2</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -2054,7 +2056,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345487A9-162C-45C8-B954-7EC0351D41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A47A9D-62C1-4E64-B43E-B7A86FCA25A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +569,11 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,9 +1976,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
       <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="8">
+        <v>2</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="7"/>
@@ -1993,7 +1997,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2039,9 +2043,15 @@
         <v>2</v>
       </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>5</v>
+      </c>
+      <c r="U6" s="8">
+        <v>13</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="7"/>
@@ -2056,7 +2066,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A47A9D-62C1-4E64-B43E-B7A86FCA25A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD824C67-333A-44B9-A447-E8CD40438B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,15 +595,15 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2053,9 @@
         <v>13</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>9</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -2066,7 +2068,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
